--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Comp-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Comp-Itgb3.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.569336</v>
+        <v>0.3194513333333333</v>
       </c>
       <c r="H2">
-        <v>1.708008</v>
+        <v>0.9583539999999999</v>
       </c>
       <c r="I2">
-        <v>0.01936485544401529</v>
+        <v>0.01095865642710367</v>
       </c>
       <c r="J2">
-        <v>0.01936485544401529</v>
+        <v>0.01095865642710367</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.214110666666667</v>
+        <v>0.2901893333333334</v>
       </c>
       <c r="N2">
-        <v>21.642332</v>
+        <v>0.870568</v>
       </c>
       <c r="O2">
-        <v>0.4688823795981188</v>
+        <v>0.03429389578125064</v>
       </c>
       <c r="P2">
-        <v>0.4688823795981188</v>
+        <v>0.03429389578125064</v>
       </c>
       <c r="Q2">
-        <v>4.107252910517333</v>
+        <v>0.09270136945244445</v>
       </c>
       <c r="R2">
-        <v>36.965276194656</v>
+        <v>0.8343123250719999</v>
       </c>
       <c r="S2">
-        <v>0.009079839501163478</v>
+        <v>0.0003758150214136259</v>
       </c>
       <c r="T2">
-        <v>0.009079839501163478</v>
+        <v>0.0003758150214136259</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.569336</v>
+        <v>0.3194513333333333</v>
       </c>
       <c r="H3">
-        <v>1.708008</v>
+        <v>0.9583539999999999</v>
       </c>
       <c r="I3">
-        <v>0.01936485544401529</v>
+        <v>0.01095865642710367</v>
       </c>
       <c r="J3">
-        <v>0.01936485544401529</v>
+        <v>0.01095865642710367</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>21.331052</v>
       </c>
       <c r="O3">
-        <v>0.4621384803214003</v>
+        <v>0.8402845891331153</v>
       </c>
       <c r="P3">
-        <v>0.4621384803214003</v>
+        <v>0.8402845891331153</v>
       </c>
       <c r="Q3">
-        <v>4.048178607157332</v>
+        <v>2.271411000934222</v>
       </c>
       <c r="R3">
-        <v>36.433607464416</v>
+        <v>20.442699008408</v>
       </c>
       <c r="S3">
-        <v>0.008949244866540824</v>
+        <v>0.009208390113299783</v>
       </c>
       <c r="T3">
-        <v>0.008949244866540824</v>
+        <v>0.009208390113299785</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.569336</v>
+        <v>0.3194513333333333</v>
       </c>
       <c r="H4">
-        <v>1.708008</v>
+        <v>0.9583539999999999</v>
       </c>
       <c r="I4">
-        <v>0.01936485544401529</v>
+        <v>0.01095865642710367</v>
       </c>
       <c r="J4">
-        <v>0.01936485544401529</v>
+        <v>0.01095865642710367</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>3.183889</v>
       </c>
       <c r="O4">
-        <v>0.06897914008048092</v>
+        <v>0.1254215150856341</v>
       </c>
       <c r="P4">
-        <v>0.06897914008048092</v>
+        <v>0.1254215150856341</v>
       </c>
       <c r="Q4">
-        <v>0.6042342092346665</v>
+        <v>0.3390325287451111</v>
       </c>
       <c r="R4">
-        <v>5.438107883111999</v>
+        <v>3.051292758706</v>
       </c>
       <c r="S4">
-        <v>0.001335771076310995</v>
+        <v>0.001374451292390265</v>
       </c>
       <c r="T4">
-        <v>0.001335771076310995</v>
+        <v>0.001374451292390264</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>84.94397599999999</v>
       </c>
       <c r="I5">
-        <v>0.9630679809930072</v>
+        <v>0.9713235907985359</v>
       </c>
       <c r="J5">
-        <v>0.9630679809930072</v>
+        <v>0.971323590798536</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.214110666666667</v>
+        <v>0.2901893333333334</v>
       </c>
       <c r="N5">
-        <v>21.642332</v>
+        <v>0.870568</v>
       </c>
       <c r="O5">
-        <v>0.4688823795981188</v>
+        <v>0.03429389578125064</v>
       </c>
       <c r="P5">
-        <v>0.4688823795981188</v>
+        <v>0.03429389578125064</v>
       </c>
       <c r="Q5">
-        <v>204.2650811102257</v>
+        <v>8.216611922040888</v>
       </c>
       <c r="R5">
-        <v>1838.385729992032</v>
+        <v>73.94950729836799</v>
       </c>
       <c r="S5">
-        <v>0.4515656066427571</v>
+        <v>0.03331046999271513</v>
       </c>
       <c r="T5">
-        <v>0.4515656066427571</v>
+        <v>0.03331046999271513</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>84.94397599999999</v>
       </c>
       <c r="I6">
-        <v>0.9630679809930072</v>
+        <v>0.9713235907985359</v>
       </c>
       <c r="J6">
-        <v>0.9630679809930072</v>
+        <v>0.971323590798536</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>21.331052</v>
       </c>
       <c r="O6">
-        <v>0.4621384803214003</v>
+        <v>0.8402845891331153</v>
       </c>
       <c r="P6">
-        <v>0.4621384803214003</v>
+        <v>0.8402845891331153</v>
       </c>
       <c r="Q6">
         <v>201.3271521269724</v>
@@ -818,10 +818,10 @@
         <v>1811.944369142752</v>
       </c>
       <c r="S6">
-        <v>0.4450707731823076</v>
+        <v>0.81618824440945</v>
       </c>
       <c r="T6">
-        <v>0.4450707731823076</v>
+        <v>0.81618824440945</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>84.94397599999999</v>
       </c>
       <c r="I7">
-        <v>0.9630679809930072</v>
+        <v>0.9713235907985359</v>
       </c>
       <c r="J7">
-        <v>0.9630679809930072</v>
+        <v>0.971323590798536</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,22 +868,22 @@
         <v>3.183889</v>
       </c>
       <c r="O7">
-        <v>0.06897914008048092</v>
+        <v>0.1254215150856341</v>
       </c>
       <c r="P7">
-        <v>0.06897914008048092</v>
+        <v>0.1254215150856341</v>
       </c>
       <c r="Q7">
-        <v>30.05024342251821</v>
+        <v>30.05024342251822</v>
       </c>
       <c r="R7">
-        <v>270.4521908026639</v>
+        <v>270.452190802664</v>
       </c>
       <c r="S7">
-        <v>0.06643160116794258</v>
+        <v>0.1218248763963709</v>
       </c>
       <c r="T7">
-        <v>0.06643160116794258</v>
+        <v>0.1218248763963709</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>1.549449</v>
       </c>
       <c r="I8">
-        <v>0.01756716356297749</v>
+        <v>0.01771775277436037</v>
       </c>
       <c r="J8">
-        <v>0.01756716356297749</v>
+        <v>0.01771775277436037</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.214110666666667</v>
+        <v>0.2901893333333334</v>
       </c>
       <c r="N8">
-        <v>21.642332</v>
+        <v>0.870568</v>
       </c>
       <c r="O8">
-        <v>0.4688823795981188</v>
+        <v>0.03429389578125064</v>
       </c>
       <c r="P8">
-        <v>0.4688823795981188</v>
+        <v>0.03429389578125064</v>
       </c>
       <c r="Q8">
-        <v>3.725965519452</v>
+        <v>0.149877857448</v>
       </c>
       <c r="R8">
-        <v>33.533689675068</v>
+        <v>1.348900717032</v>
       </c>
       <c r="S8">
-        <v>0.008236933454198252</v>
+        <v>0.000607610767121879</v>
       </c>
       <c r="T8">
-        <v>0.008236933454198252</v>
+        <v>0.000607610767121879</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>1.549449</v>
       </c>
       <c r="I9">
-        <v>0.01756716356297749</v>
+        <v>0.01771775277436037</v>
       </c>
       <c r="J9">
-        <v>0.01756716356297749</v>
+        <v>0.01771775277436037</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>21.331052</v>
       </c>
       <c r="O9">
-        <v>0.4621384803214003</v>
+        <v>0.8402845891331153</v>
       </c>
       <c r="P9">
-        <v>0.4621384803214003</v>
+        <v>0.8402845891331153</v>
       </c>
       <c r="Q9">
         <v>3.672375243372</v>
@@ -1004,10 +1004,10 @@
         <v>33.051377190348</v>
       </c>
       <c r="S9">
-        <v>0.008118462272551892</v>
+        <v>0.01488795461036552</v>
       </c>
       <c r="T9">
-        <v>0.008118462272551892</v>
+        <v>0.01488795461036552</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>1.549449</v>
       </c>
       <c r="I10">
-        <v>0.01756716356297749</v>
+        <v>0.01771775277436037</v>
       </c>
       <c r="J10">
-        <v>0.01756716356297749</v>
+        <v>0.01771775277436037</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>3.183889</v>
       </c>
       <c r="O10">
-        <v>0.06897914008048092</v>
+        <v>0.1254215150856341</v>
       </c>
       <c r="P10">
-        <v>0.06897914008048092</v>
+        <v>0.1254215150856341</v>
       </c>
       <c r="Q10">
-        <v>0.5481415141289999</v>
+        <v>0.548141514129</v>
       </c>
       <c r="R10">
         <v>4.933273627161</v>
       </c>
       <c r="S10">
-        <v>0.001211767836227344</v>
+        <v>0.002222187396872975</v>
       </c>
       <c r="T10">
-        <v>0.001211767836227344</v>
+        <v>0.002222187396872975</v>
       </c>
     </row>
   </sheetData>
